--- a/Excel/图标表.xlsx
+++ b/Excel/图标表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="432">
   <si>
     <t>int</t>
   </si>
@@ -53,10 +53,1270 @@
     <t>资源名称</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>addons</t>
+  </si>
+  <si>
+    <t>01_wt_t</t>
+  </si>
+  <si>
+    <t>127_t</t>
+  </si>
+  <si>
+    <t>128_t</t>
+  </si>
+  <si>
+    <t>129_t</t>
+  </si>
+  <si>
+    <t>130_t</t>
+  </si>
+  <si>
+    <t>131_t</t>
+  </si>
+  <si>
+    <t>134_t</t>
+  </si>
+  <si>
+    <t>135_t</t>
+  </si>
+  <si>
+    <t>136_t</t>
+  </si>
+  <si>
+    <t>138_t</t>
+  </si>
+  <si>
+    <t>139_t</t>
+  </si>
+  <si>
+    <t>142_t</t>
+  </si>
+  <si>
+    <t>143_t</t>
+  </si>
+  <si>
+    <t>146_t</t>
+  </si>
+  <si>
+    <t>147_t</t>
+  </si>
+  <si>
+    <t>149_t</t>
+  </si>
+  <si>
+    <t>154_t</t>
+  </si>
+  <si>
+    <t>155_t</t>
+  </si>
+  <si>
+    <t>44_t</t>
+  </si>
+  <si>
+    <t>65_t</t>
+  </si>
+  <si>
+    <t>ammunition</t>
+  </si>
+  <si>
+    <t>ar_t_01</t>
+  </si>
+  <si>
+    <t>ar_t_02</t>
+  </si>
+  <si>
+    <t>bl_t_01</t>
+  </si>
+  <si>
+    <t>t_f_04</t>
+  </si>
+  <si>
+    <t>axes</t>
+  </si>
+  <si>
+    <t>axe_t_01</t>
+  </si>
+  <si>
+    <t>axe_t_02</t>
+  </si>
+  <si>
+    <t>axe_t_03</t>
+  </si>
+  <si>
+    <t>axe_t_04</t>
+  </si>
+  <si>
+    <t>axe_t_05</t>
+  </si>
+  <si>
+    <t>axe_t_06</t>
+  </si>
+  <si>
+    <t>axe_t_07</t>
+  </si>
+  <si>
+    <t>axe_t_09</t>
+  </si>
+  <si>
+    <t>axe_t_10</t>
+  </si>
+  <si>
+    <t>a_n_t_01</t>
+  </si>
+  <si>
+    <t>a_n_t_02</t>
+  </si>
+  <si>
+    <t>a_n_t_03</t>
+  </si>
+  <si>
+    <t>a_n_t_04</t>
+  </si>
+  <si>
+    <t>a_n_t_05</t>
+  </si>
+  <si>
+    <t>t_f_01</t>
+  </si>
+  <si>
+    <t>t_f_02</t>
+  </si>
+  <si>
+    <t>bows</t>
+  </si>
+  <si>
+    <t>b_t_01</t>
+  </si>
+  <si>
+    <t>b_t_02</t>
+  </si>
+  <si>
+    <t>b_t_03</t>
+  </si>
+  <si>
+    <t>b_t_04</t>
+  </si>
+  <si>
+    <t>b_t_05</t>
+  </si>
+  <si>
+    <t>brass_knuckles</t>
+  </si>
+  <si>
+    <t>f_t_01</t>
+  </si>
+  <si>
+    <t>f_t_03</t>
+  </si>
+  <si>
+    <t>f_t_04</t>
+  </si>
+  <si>
+    <t>f_t_05</t>
+  </si>
+  <si>
+    <t>clubs</t>
+  </si>
+  <si>
+    <t>bl_f_t_01</t>
+  </si>
+  <si>
+    <t>bl_t_02</t>
+  </si>
+  <si>
+    <t>bl_t_03</t>
+  </si>
+  <si>
+    <t>bl_t_08</t>
+  </si>
+  <si>
+    <t>bl_t_09</t>
+  </si>
+  <si>
+    <t>bl_t_10</t>
+  </si>
+  <si>
+    <t>controls</t>
+  </si>
+  <si>
+    <t>Button_RL_Background</t>
+  </si>
+  <si>
+    <t>Button_RL_Border</t>
+  </si>
+  <si>
+    <t>Button_RL_Hover</t>
+  </si>
+  <si>
+    <t>Button_RL_Overlay</t>
+  </si>
+  <si>
+    <t>Button_S1_Background</t>
+  </si>
+  <si>
+    <t>Button_S1_Icon_Back</t>
+  </si>
+  <si>
+    <t>Button_S1_Icon_Close</t>
+  </si>
+  <si>
+    <t>Button_S1_Icon_Close_Small</t>
+  </si>
+  <si>
+    <t>Button_S1_Icon_Create</t>
+  </si>
+  <si>
+    <t>Button_S1_Icon_Delete</t>
+  </si>
+  <si>
+    <t>Button_S1_Icon_Menu</t>
+  </si>
+  <si>
+    <t>Checkbox_Checkmark</t>
+  </si>
+  <si>
+    <t>Checkbox_Hover</t>
+  </si>
+  <si>
+    <t>InputField_Background</t>
+  </si>
+  <si>
+    <t>InputField_Background2</t>
+  </si>
+  <si>
+    <t>InputField_Focus</t>
+  </si>
+  <si>
+    <t>InputField_Glow</t>
+  </si>
+  <si>
+    <t>InputField_Gradient</t>
+  </si>
+  <si>
+    <t>InputField_Tribal</t>
+  </si>
+  <si>
+    <t>Radio_Background</t>
+  </si>
+  <si>
+    <t>Radio_Checkmark</t>
+  </si>
+  <si>
+    <t>Radio_Hover</t>
+  </si>
+  <si>
+    <t>Radio_Press</t>
+  </si>
+  <si>
+    <t>SelectField_Arrow</t>
+  </si>
+  <si>
+    <t>SelectField_Arrow_Hover</t>
+  </si>
+  <si>
+    <t>Slider_Advanced_Horizontal_Handle</t>
+  </si>
+  <si>
+    <t>Slider_Advanced_Horizontal_Handle_Hover</t>
+  </si>
+  <si>
+    <t>Slider_Box_Background</t>
+  </si>
+  <si>
+    <t>Slider_Horizontal_Background</t>
+  </si>
+  <si>
+    <t>Slider_Horizontal_Fill</t>
+  </si>
+  <si>
+    <t>Slider_Horizontal_Handle</t>
+  </si>
+  <si>
+    <t>SwitchToggle_Handle</t>
+  </si>
+  <si>
+    <t>crossbows</t>
+  </si>
+  <si>
+    <t>a_t_04</t>
+  </si>
+  <si>
+    <t>daggers</t>
+  </si>
+  <si>
+    <t>kn_t_01</t>
+  </si>
+  <si>
+    <t>kn_t_02</t>
+  </si>
+  <si>
+    <t>kn_t_03</t>
+  </si>
+  <si>
+    <t>kn_t_04</t>
+  </si>
+  <si>
+    <t>kn_t_05</t>
+  </si>
+  <si>
+    <t>kn_t_06</t>
+  </si>
+  <si>
+    <t>kn_t_07</t>
+  </si>
+  <si>
+    <t>kn_t_08</t>
+  </si>
+  <si>
+    <t>k_nt_01</t>
+  </si>
+  <si>
+    <t>k_nt_02</t>
+  </si>
+  <si>
+    <t>k_nt_03</t>
+  </si>
+  <si>
+    <t>k_nt_04</t>
+  </si>
+  <si>
+    <t>k_nt_05</t>
+  </si>
+  <si>
+    <t>k_nt_06</t>
+  </si>
+  <si>
+    <t>t_f_03</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>CharacterCreate_CharacterShade</t>
+  </si>
+  <si>
+    <t>CharacterCreate_Race_Example</t>
+  </si>
+  <si>
+    <t>CharacterSelect_List_CharacterShade</t>
+  </si>
+  <si>
+    <t>CSL_Character_Avatar_Example</t>
+  </si>
+  <si>
+    <t>HeroSelect_CharacterShade</t>
+  </si>
+  <si>
+    <t>HeroSelect_Hero_AvatarExample</t>
+  </si>
+  <si>
+    <t>Logo_Large_Background</t>
+  </si>
+  <si>
+    <t>Logo_Large_Foreground_Tribals</t>
+  </si>
+  <si>
+    <t>Logo_Large_Texts</t>
+  </si>
+  <si>
+    <t>Logo_Large_Tribal</t>
+  </si>
+  <si>
+    <t>Logo_Small_Background</t>
+  </si>
+  <si>
+    <t>Logo_Small_Foreground_Tribals</t>
+  </si>
+  <si>
+    <t>Logo_Small_Texts</t>
+  </si>
+  <si>
+    <t>Logo_Small_Tribal</t>
+  </si>
+  <si>
+    <t>Minimap_Example</t>
+  </si>
+  <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Avatar_Example</t>
+  </si>
+  <si>
+    <t>guns</t>
+  </si>
+  <si>
+    <t>gun_t_01</t>
+  </si>
+  <si>
+    <t>gun_t_02</t>
+  </si>
+  <si>
+    <t>gun_t_03</t>
+  </si>
+  <si>
+    <t>gun_t_04</t>
+  </si>
+  <si>
+    <t>gun_t_05</t>
+  </si>
+  <si>
+    <t>gun_t_06</t>
+  </si>
+  <si>
+    <t>gun_t_07</t>
+  </si>
+  <si>
+    <t>hammers</t>
+  </si>
+  <si>
+    <t>hmmr_f_t_01</t>
+  </si>
+  <si>
+    <t>hm_t_01</t>
+  </si>
+  <si>
+    <t>hm_t_02</t>
+  </si>
+  <si>
+    <t>hm_t_03</t>
+  </si>
+  <si>
+    <t>hm_t_04</t>
+  </si>
+  <si>
+    <t>hm_t_06</t>
+  </si>
+  <si>
+    <t>hm_t_07</t>
+  </si>
+  <si>
+    <t>hm_t_08</t>
+  </si>
+  <si>
+    <t>hm_t_09</t>
+  </si>
+  <si>
+    <t>hm_t_10</t>
+  </si>
+  <si>
+    <t>hud</t>
+  </si>
+  <si>
+    <t>ActionBar_BarMenu_Arrow</t>
+  </si>
+  <si>
+    <t>ActionBar_BarMenu_Arrow_Hover</t>
+  </si>
+  <si>
+    <t>ActionBar_BarMenu_Background</t>
+  </si>
+  <si>
+    <t>ActionBar_Button_Background</t>
+  </si>
+  <si>
+    <t>ActionBar_Button_Hover</t>
+  </si>
+  <si>
+    <t>ActionBar_ExtraSlot_Background</t>
+  </si>
+  <si>
+    <t>ActionBar_Globe_Background</t>
+  </si>
+  <si>
+    <t>ActionBar_Globe_Fill_Blue</t>
+  </si>
+  <si>
+    <t>ActionBar_Globe_Fill_Empty</t>
+  </si>
+  <si>
+    <t>ActionBar_Globe_Fill_Grayscale</t>
+  </si>
+  <si>
+    <t>ActionBar_Globe_Fill_Red</t>
+  </si>
+  <si>
+    <t>ActionBar_MainSlot_Background</t>
+  </si>
+  <si>
+    <t>ActionBar_Tribals</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>CastBar_Background</t>
+  </si>
+  <si>
+    <t>CastBar_Fill_Big</t>
+  </si>
+  <si>
+    <t>CastBar_Fill_Small</t>
+  </si>
+  <si>
+    <t>CastBar_Icon_Frame</t>
+  </si>
+  <si>
+    <t>Chat_Background</t>
+  </si>
+  <si>
+    <t>Chat_Border_Vertical</t>
+  </si>
+  <si>
+    <t>Chat_Border_Vertical_Arrow</t>
+  </si>
+  <si>
+    <t>Chat_Border_Vertical_Arrow_Fill</t>
+  </si>
+  <si>
+    <t>Chat_Input_Background</t>
+  </si>
+  <si>
+    <t>Chat_Submit</t>
+  </si>
+  <si>
+    <t>Chat_Tab_Active_Arrow</t>
+  </si>
+  <si>
+    <t>Chat_Tab_Active_Overlay</t>
+  </si>
+  <si>
+    <t>Chat_Tab_Background</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>Minimap_Background</t>
+  </si>
+  <si>
+    <t>Minimap_Overlay</t>
+  </si>
+  <si>
+    <t>Minimap_Pin_Boss</t>
+  </si>
+  <si>
+    <t>Minimap_Pin_Boss_Dead</t>
+  </si>
+  <si>
+    <t>Minimap_Pin_Unit_Green</t>
+  </si>
+  <si>
+    <t>Minimap_Pin_Unit_Orange</t>
+  </si>
+  <si>
+    <t>Minimap_Pin_Unit_Purple</t>
+  </si>
+  <si>
+    <t>Minimap_Pin_Unit_Red</t>
+  </si>
+  <si>
+    <t>Minimap_Tribal_Backgroung</t>
+  </si>
+  <si>
+    <t>Minimap_Tribal_Fill</t>
+  </si>
+  <si>
+    <t>Minimap_Zoom_Minus</t>
+  </si>
+  <si>
+    <t>Minimap_Zoom_Plus</t>
+  </si>
+  <si>
+    <t>Notification_Background</t>
+  </si>
+  <si>
+    <t>Notification_Background2</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>QuestTracker_Border</t>
+  </si>
+  <si>
+    <t>QuestTracker_Button_Arrow</t>
+  </si>
+  <si>
+    <t>QuestTracker_Button_Background</t>
+  </si>
+  <si>
+    <t>QuestTracker_Checkbox_Background</t>
+  </si>
+  <si>
+    <t>QuestTracker_Checkbox_Checkmark_Complete</t>
+  </si>
+  <si>
+    <t>QuestTracker_Checkbox_Checkmark_Failed</t>
+  </si>
+  <si>
+    <t>QuestTracker_Gradient</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Tooltip_Anchor</t>
+  </si>
+  <si>
+    <t>Tooltip_Background</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Avatar_Background</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Avatar_Mask</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Avatar_Overlay</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Avatar_TR</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Avatar_TR_Fill</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Background</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Bar_Primary_Fill</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Bar_Secondary_Fill</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_CP_Fill</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_CP_Frame</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Elite</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Level_Background</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Level_Skull</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Role_Background</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Role_DPS</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Role_HPS</t>
+  </si>
+  <si>
+    <t>UnitFrame_Main_Role_Tank</t>
+  </si>
+  <si>
+    <t>UnitFrame_Party_Avatar_Background</t>
+  </si>
+  <si>
+    <t>UnitFrame_Party_Background</t>
+  </si>
+  <si>
+    <t>UnitFrame_Party_Level_Background</t>
+  </si>
+  <si>
+    <t>UnitFrame_Party_Role_Background</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>XPBar_Background</t>
+  </si>
+  <si>
+    <t>XPBar_Border_Gradient</t>
+  </si>
+  <si>
+    <t>XPBar_Fill</t>
+  </si>
+  <si>
+    <t>XPTooltip_Background_Arrow</t>
+  </si>
+  <si>
+    <t>XPTooltip_Background_Middle</t>
+  </si>
+  <si>
+    <t>XPTooltip_Background_Side</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>Icon_Arrows_128</t>
+  </si>
+  <si>
+    <t>Icon_Book_128</t>
+  </si>
+  <si>
+    <t>Icon_Deathkiss_128</t>
+  </si>
+  <si>
+    <t>Icon_Fireball_128</t>
+  </si>
+  <si>
+    <t>Icon_Leafs_128</t>
+  </si>
+  <si>
+    <t>Icon_Pyroblast_128</t>
+  </si>
+  <si>
+    <t>Icon_Shield_128</t>
+  </si>
+  <si>
+    <t>Icon_Sunshiny_128</t>
+  </si>
+  <si>
+    <t>Icon_Sword_128</t>
+  </si>
+  <si>
+    <t>loadingBar</t>
+  </si>
+  <si>
+    <t>LoadingBar_Background</t>
+  </si>
+  <si>
+    <t>LoadingBar_Fill</t>
+  </si>
+  <si>
+    <t>lobby</t>
+  </si>
+  <si>
+    <t>BottomBar_Background</t>
+  </si>
+  <si>
+    <t>BottomBar_Border</t>
+  </si>
+  <si>
+    <t>BottomBar_CenterTribal_Background</t>
+  </si>
+  <si>
+    <t>BottomBar_CenterTribal_Fill</t>
+  </si>
+  <si>
+    <t>BottomBar_Gradient</t>
+  </si>
+  <si>
+    <t>BottomBar_Gradient_Background</t>
+  </si>
+  <si>
+    <t>BottomBar_SideTribal_Background</t>
+  </si>
+  <si>
+    <t>BottomBar_SideTribal_Fill</t>
+  </si>
+  <si>
+    <t>CharacterCreate_Faction_Blue</t>
+  </si>
+  <si>
+    <t>CharacterCreate_Faction_Red</t>
+  </si>
+  <si>
+    <t>CharacterCreate_Gender_Female</t>
+  </si>
+  <si>
+    <t>CharacterCreate_Gender_Male</t>
+  </si>
+  <si>
+    <t>CharacterCreate_Section_Background</t>
+  </si>
+  <si>
+    <t>CharacterSelect_MessageBox</t>
+  </si>
+  <si>
+    <t>CharacterSelect_MessageBox_Button</t>
+  </si>
+  <si>
+    <t>CharacterSelect_MessageBox_Icon_Important</t>
+  </si>
+  <si>
+    <t>CS3D_Arrow_Background</t>
+  </si>
+  <si>
+    <t>CS3D_Arrow_Foreground</t>
+  </si>
+  <si>
+    <t>CS3D_Arrow_Hover</t>
+  </si>
+  <si>
+    <t>CS3D_Arrow_Overlay</t>
+  </si>
+  <si>
+    <t>CS3D_CharacterInfo_Glow</t>
+  </si>
+  <si>
+    <t>CS3D_CharacterInfo_Tribal_Bottom</t>
+  </si>
+  <si>
+    <t>CS3D_CharacterInfo_Tribal_Top</t>
+  </si>
+  <si>
+    <t>CSL_Character_Avatar_Frame</t>
+  </si>
+  <si>
+    <t>CSL_Character_CreateBtn_Icon</t>
+  </si>
+  <si>
+    <t>CSL_Character_DeleteBtn</t>
+  </si>
+  <si>
+    <t>CSL_Character_Gradient</t>
+  </si>
+  <si>
+    <t>CSL_Character_Selected</t>
+  </si>
+  <si>
+    <t>CSL_Header_Glow</t>
+  </si>
+  <si>
+    <t>CSL_Header_Tribal</t>
+  </si>
+  <si>
+    <t>HeroSelect_Hero_Background</t>
+  </si>
+  <si>
+    <t>HeroSelect_Hero_Frame</t>
+  </si>
+  <si>
+    <t>HeroSelect_Hero_Selected</t>
+  </si>
+  <si>
+    <t>HeroSelect_Role_Defense</t>
+  </si>
+  <si>
+    <t>HeroSelect_Role_Offsense</t>
+  </si>
+  <si>
+    <t>HeroSelect_Role_Support</t>
+  </si>
+  <si>
+    <t>HeroSelect_Role_Tank</t>
+  </si>
+  <si>
+    <t>Lobby_Border</t>
+  </si>
+  <si>
+    <t>Lobby_Border_Arrow</t>
+  </si>
+  <si>
+    <t>Lobby_Gradient</t>
+  </si>
+  <si>
+    <t>Lobby_Notification_Background</t>
+  </si>
+  <si>
+    <t>Lobby_Notification_Border_Bottom</t>
+  </si>
+  <si>
+    <t>Lobby_Notification_Border_Middle</t>
+  </si>
+  <si>
+    <t>Lobby_Notification_Border_Top</t>
+  </si>
+  <si>
+    <t>Lobby_Notification_Gradient</t>
+  </si>
+  <si>
+    <t>Login_Toggle_Gradient</t>
+  </si>
+  <si>
+    <t>SwitchSelect_Background</t>
+  </si>
+  <si>
+    <t>SwitchSelect_Background_Arrow</t>
+  </si>
+  <si>
+    <t>SwitchSelect_Button_Arrow</t>
+  </si>
+  <si>
+    <t>SwitchSelect_Button_Arrow_Hover</t>
+  </si>
+  <si>
+    <t>Tooltip_Lobby_Anchor_Bottom_BG</t>
+  </si>
+  <si>
+    <t>Tooltip_Lobby_Anchor_Bottom_FG</t>
+  </si>
+  <si>
+    <t>Tooltip_Lobby_Anchor_Left_BG</t>
+  </si>
+  <si>
+    <t>Tooltip_Lobby_Anchor_Left_FG</t>
+  </si>
+  <si>
+    <t>Tooltip_Lobby_Background</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>Currency_Bronze_Small</t>
+  </si>
+  <si>
+    <t>Currency_Gold_Small</t>
+  </si>
+  <si>
+    <t>Currency_Silver_Small</t>
+  </si>
+  <si>
+    <t>GameMenu_Tribals</t>
+  </si>
+  <si>
+    <t>General_Border_Horizontal</t>
+  </si>
+  <si>
+    <t>General_Border_Horizontal_Arrow</t>
+  </si>
+  <si>
+    <t>General_Border_Horizontal_Arrow_Fill</t>
+  </si>
+  <si>
+    <t>General_Tribal</t>
+  </si>
+  <si>
+    <t>General_Tribal_Glow</t>
+  </si>
+  <si>
+    <t>Seprator_Horizontal</t>
+  </si>
+  <si>
+    <t>Seprator_Vertical</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>modalBox</t>
+  </si>
+  <si>
+    <t>ModalBox_Background</t>
+  </si>
+  <si>
+    <t>polearms</t>
+  </si>
+  <si>
+    <t>sp_t_01</t>
+  </si>
+  <si>
+    <t>sp_t_02</t>
+  </si>
+  <si>
+    <t>sp_t_03</t>
+  </si>
+  <si>
+    <t>sp_t_04</t>
+  </si>
+  <si>
+    <t>sp_t_09</t>
+  </si>
+  <si>
+    <t>staves</t>
+  </si>
+  <si>
+    <t>stf_t_01</t>
+  </si>
+  <si>
+    <t>st_t_01</t>
+  </si>
+  <si>
+    <t>st_t_02</t>
+  </si>
+  <si>
+    <t>st_t_03</t>
+  </si>
+  <si>
+    <t>st_t_04</t>
+  </si>
+  <si>
+    <t>st_t_05</t>
+  </si>
+  <si>
+    <t>st_t_06</t>
+  </si>
+  <si>
+    <t>st_t_07</t>
+  </si>
+  <si>
+    <t>st_t_08</t>
+  </si>
+  <si>
+    <t>st_t_09</t>
+  </si>
+  <si>
+    <t>swords</t>
+  </si>
+  <si>
+    <t>sv_t_01</t>
+  </si>
+  <si>
+    <t>sv_t_02</t>
+  </si>
+  <si>
+    <t>sv_t_03</t>
+  </si>
+  <si>
+    <t>sv_t_04</t>
+  </si>
+  <si>
+    <t>sv_t_05</t>
+  </si>
+  <si>
+    <t>sv_t_06</t>
+  </si>
+  <si>
+    <t>sv_t_07</t>
+  </si>
+  <si>
+    <t>sv_t_09</t>
+  </si>
+  <si>
+    <t>sv_t_10</t>
+  </si>
+  <si>
+    <t>sv_t_14</t>
+  </si>
+  <si>
+    <t>swnt_01</t>
+  </si>
+  <si>
+    <t>swnt_02</t>
+  </si>
+  <si>
+    <t>swnt_03</t>
+  </si>
+  <si>
+    <t>swnt_04</t>
+  </si>
+  <si>
+    <t>swnt_05</t>
+  </si>
+  <si>
+    <t>swnt_06</t>
+  </si>
+  <si>
+    <t>textBoxes</t>
+  </si>
+  <si>
+    <t>TextBox_Background</t>
+  </si>
+  <si>
+    <t>TextBox_Icon_Circle</t>
+  </si>
+  <si>
+    <t>TextBox_Icon_Star</t>
+  </si>
+  <si>
+    <t>TextBox_Icon_Triangle</t>
+  </si>
+  <si>
+    <t>throwing_weapons</t>
+  </si>
+  <si>
+    <t>m_t_01</t>
+  </si>
+  <si>
+    <t>m_t_02</t>
+  </si>
+  <si>
+    <t>m_t_03</t>
+  </si>
+  <si>
+    <t>m_t_04</t>
+  </si>
+  <si>
+    <t>m_t_05</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Bracers</t>
+  </si>
+  <si>
+    <t>Character_Example</t>
+  </si>
+  <si>
+    <t>Character_RC_Left</t>
+  </si>
+  <si>
+    <t>Character_RC_Middle</t>
+  </si>
+  <si>
+    <t>Character_Reputation_Bar_Background</t>
+  </si>
+  <si>
+    <t>Character_Reputation_Bar_Fill</t>
+  </si>
+  <si>
+    <t>Character_Titles_Checkbox_Background</t>
+  </si>
+  <si>
+    <t>Character_Titles_Checkbox_Checkmark</t>
+  </si>
+  <si>
+    <t>Character_Titles_Glow</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Down_End</t>
+  </si>
+  <si>
+    <t>Down_Start,png</t>
+  </si>
+  <si>
+    <t>Down_To_Right</t>
+  </si>
+  <si>
+    <t>Earrings</t>
+  </si>
+  <si>
+    <t>Equip_Slot_Background</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Inventory_Slot_Background</t>
+  </si>
+  <si>
+    <t>Inventory_Slot_Glow</t>
+  </si>
+  <si>
+    <t>Inventory_Slot_Overlay</t>
+  </si>
+  <si>
+    <t>Inventory_Slot_QualityBorder</t>
+  </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>MainWeapon</t>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>OffWeapon</t>
+  </si>
+  <si>
+    <t>Right_End</t>
+  </si>
+  <si>
+    <t>Right_Start</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Shoulders</t>
+  </si>
+  <si>
+    <t>Spellbook_Row_Background</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Talents_Tab_Active_Arrow</t>
+  </si>
+  <si>
+    <t>Talents_Tab_Background</t>
+  </si>
+  <si>
+    <t>Talent_Slot_Background</t>
+  </si>
+  <si>
+    <t>Talent_Slot_GoldBorder</t>
+  </si>
+  <si>
+    <t>Talent_Slot_GoldGlow</t>
+  </si>
+  <si>
+    <t>Talent_Slot_Points_Background</t>
+  </si>
+  <si>
+    <t>Vendor_Frame</t>
+  </si>
+  <si>
+    <t>Window_Background</t>
+  </si>
+  <si>
+    <t>Window_Header_Background</t>
+  </si>
+  <si>
+    <t>Window_Header_Border_Center</t>
+  </si>
+  <si>
+    <t>Window_Header_Border_Side</t>
+  </si>
+  <si>
+    <t>Window_Header_Gradient</t>
+  </si>
+  <si>
+    <t>Window_Header_Tribals_Background</t>
+  </si>
+  <si>
+    <t>Window_Header_Tribals_Fill</t>
+  </si>
+  <si>
+    <t>Window_Header_Tribals_Small_Background</t>
+  </si>
+  <si>
+    <t>Window_Header_Tribals_Small_Fill</t>
+  </si>
+  <si>
+    <t>Window_Tabs_Active_Arrow</t>
+  </si>
+  <si>
+    <t>Window_Tabs_Active_Border</t>
+  </si>
+  <si>
+    <t>Window_Tabs_Active_Gradient</t>
+  </si>
+  <si>
+    <t>Window_Tabs_Bar_Background_Middle</t>
+  </si>
+  <si>
+    <t>Window_Tabs_Bar_Background_Side</t>
   </si>
 </sst>
 </file>
@@ -381,13 +1641,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="E413" sqref="E412:E413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -452,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -463,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -474,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -485,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -496,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -507,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -518,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -529,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,7 +1805,4297 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>111</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>113</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>115</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>116</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>121</v>
+      </c>
+      <c r="B125" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>127</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>128</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>129</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>131</v>
+      </c>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>132</v>
+      </c>
+      <c r="B136" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>135</v>
+      </c>
+      <c r="B139" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>139</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>140</v>
+      </c>
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>141</v>
+      </c>
+      <c r="B145" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>143</v>
+      </c>
+      <c r="B147" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>144</v>
+      </c>
+      <c r="B148" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>145</v>
+      </c>
+      <c r="B149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>146</v>
+      </c>
+      <c r="B150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>148</v>
+      </c>
+      <c r="B152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>151</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>153</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>156</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>158</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>162</v>
+      </c>
+      <c r="B166" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>163</v>
+      </c>
+      <c r="B167" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>164</v>
+      </c>
+      <c r="B168" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>165</v>
+      </c>
+      <c r="B169" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>166</v>
+      </c>
+      <c r="B170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>167</v>
+      </c>
+      <c r="B171" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>168</v>
+      </c>
+      <c r="B172" t="s">
+        <v>160</v>
+      </c>
+      <c r="C172" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" t="s">
+        <v>160</v>
+      </c>
+      <c r="C173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>170</v>
+      </c>
+      <c r="B174" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>171</v>
+      </c>
+      <c r="B175" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>172</v>
+      </c>
+      <c r="B176" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>173</v>
+      </c>
+      <c r="B177" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>174</v>
+      </c>
+      <c r="B178" t="s">
+        <v>160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>175</v>
+      </c>
+      <c r="B179" t="s">
+        <v>160</v>
+      </c>
+      <c r="C179" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>177</v>
+      </c>
+      <c r="B181" t="s">
+        <v>160</v>
+      </c>
+      <c r="C181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>178</v>
+      </c>
+      <c r="B182" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>179</v>
+      </c>
+      <c r="B183" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>180</v>
+      </c>
+      <c r="B184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>181</v>
+      </c>
+      <c r="B185" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>182</v>
+      </c>
+      <c r="B186" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>183</v>
+      </c>
+      <c r="B187" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>184</v>
+      </c>
+      <c r="B188" t="s">
+        <v>160</v>
+      </c>
+      <c r="C188" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>185</v>
+      </c>
+      <c r="B189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>186</v>
+      </c>
+      <c r="B190" t="s">
+        <v>160</v>
+      </c>
+      <c r="C190" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>187</v>
+      </c>
+      <c r="B191" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>188</v>
+      </c>
+      <c r="B192" t="s">
+        <v>160</v>
+      </c>
+      <c r="C192" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>189</v>
+      </c>
+      <c r="B193" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>190</v>
+      </c>
+      <c r="B194" t="s">
+        <v>160</v>
+      </c>
+      <c r="C194" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>191</v>
+      </c>
+      <c r="B195" t="s">
+        <v>160</v>
+      </c>
+      <c r="C195" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>192</v>
+      </c>
+      <c r="B196" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>193</v>
+      </c>
+      <c r="B197" t="s">
+        <v>160</v>
+      </c>
+      <c r="C197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>194</v>
+      </c>
+      <c r="B198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C198" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>195</v>
+      </c>
+      <c r="B199" t="s">
+        <v>160</v>
+      </c>
+      <c r="C199" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>196</v>
+      </c>
+      <c r="B200" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>197</v>
+      </c>
+      <c r="B201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C201" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>198</v>
+      </c>
+      <c r="B202" t="s">
+        <v>160</v>
+      </c>
+      <c r="C202" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>199</v>
+      </c>
+      <c r="B203" t="s">
+        <v>160</v>
+      </c>
+      <c r="C203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>200</v>
+      </c>
+      <c r="B204" t="s">
+        <v>160</v>
+      </c>
+      <c r="C204" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>201</v>
+      </c>
+      <c r="B205" t="s">
+        <v>160</v>
+      </c>
+      <c r="C205" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>202</v>
+      </c>
+      <c r="B206" t="s">
+        <v>160</v>
+      </c>
+      <c r="C206" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>203</v>
+      </c>
+      <c r="B207" t="s">
+        <v>160</v>
+      </c>
+      <c r="C207" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>204</v>
+      </c>
+      <c r="B208" t="s">
+        <v>160</v>
+      </c>
+      <c r="C208" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>205</v>
+      </c>
+      <c r="B209" t="s">
+        <v>160</v>
+      </c>
+      <c r="C209" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>206</v>
+      </c>
+      <c r="B210" t="s">
+        <v>160</v>
+      </c>
+      <c r="C210" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>207</v>
+      </c>
+      <c r="B211" t="s">
+        <v>160</v>
+      </c>
+      <c r="C211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>208</v>
+      </c>
+      <c r="B212" t="s">
+        <v>160</v>
+      </c>
+      <c r="C212" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>209</v>
+      </c>
+      <c r="B213" t="s">
+        <v>160</v>
+      </c>
+      <c r="C213" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>210</v>
+      </c>
+      <c r="B214" t="s">
+        <v>160</v>
+      </c>
+      <c r="C214" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>211</v>
+      </c>
+      <c r="B215" t="s">
+        <v>160</v>
+      </c>
+      <c r="C215" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>212</v>
+      </c>
+      <c r="B216" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>213</v>
+      </c>
+      <c r="B217" t="s">
+        <v>160</v>
+      </c>
+      <c r="C217" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>214</v>
+      </c>
+      <c r="B218" t="s">
+        <v>160</v>
+      </c>
+      <c r="C218" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>215</v>
+      </c>
+      <c r="B219" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>216</v>
+      </c>
+      <c r="B220" t="s">
+        <v>160</v>
+      </c>
+      <c r="C220" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>217</v>
+      </c>
+      <c r="B221" t="s">
+        <v>160</v>
+      </c>
+      <c r="C221" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>218</v>
+      </c>
+      <c r="B222" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>219</v>
+      </c>
+      <c r="B223" t="s">
+        <v>160</v>
+      </c>
+      <c r="C223" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>220</v>
+      </c>
+      <c r="B224" t="s">
+        <v>160</v>
+      </c>
+      <c r="C224" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>221</v>
+      </c>
+      <c r="B225" t="s">
+        <v>160</v>
+      </c>
+      <c r="C225" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>222</v>
+      </c>
+      <c r="B226" t="s">
+        <v>160</v>
+      </c>
+      <c r="C226" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>223</v>
+      </c>
+      <c r="B227" t="s">
+        <v>160</v>
+      </c>
+      <c r="C227" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>224</v>
+      </c>
+      <c r="B228" t="s">
+        <v>160</v>
+      </c>
+      <c r="C228" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>225</v>
+      </c>
+      <c r="B229" t="s">
+        <v>246</v>
+      </c>
+      <c r="C229" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>226</v>
+      </c>
+      <c r="B230" t="s">
+        <v>246</v>
+      </c>
+      <c r="C230" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>227</v>
+      </c>
+      <c r="B231" t="s">
+        <v>246</v>
+      </c>
+      <c r="C231" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>228</v>
+      </c>
+      <c r="B232" t="s">
+        <v>246</v>
+      </c>
+      <c r="C232" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>229</v>
+      </c>
+      <c r="B233" t="s">
+        <v>246</v>
+      </c>
+      <c r="C233" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>230</v>
+      </c>
+      <c r="B234" t="s">
+        <v>246</v>
+      </c>
+      <c r="C234" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>231</v>
+      </c>
+      <c r="B235" t="s">
+        <v>246</v>
+      </c>
+      <c r="C235" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>232</v>
+      </c>
+      <c r="B236" t="s">
+        <v>246</v>
+      </c>
+      <c r="C236" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>233</v>
+      </c>
+      <c r="B237" t="s">
+        <v>246</v>
+      </c>
+      <c r="C237" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>234</v>
+      </c>
+      <c r="B238" t="s">
+        <v>256</v>
+      </c>
+      <c r="C238" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>235</v>
+      </c>
+      <c r="B239" t="s">
+        <v>256</v>
+      </c>
+      <c r="C239" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>236</v>
+      </c>
+      <c r="B240" t="s">
+        <v>259</v>
+      </c>
+      <c r="C240" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>237</v>
+      </c>
+      <c r="B241" t="s">
+        <v>259</v>
+      </c>
+      <c r="C241" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>238</v>
+      </c>
+      <c r="B242" t="s">
+        <v>259</v>
+      </c>
+      <c r="C242" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>239</v>
+      </c>
+      <c r="B243" t="s">
+        <v>259</v>
+      </c>
+      <c r="C243" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>240</v>
+      </c>
+      <c r="B244" t="s">
+        <v>259</v>
+      </c>
+      <c r="C244" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>241</v>
+      </c>
+      <c r="B245" t="s">
+        <v>259</v>
+      </c>
+      <c r="C245" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>242</v>
+      </c>
+      <c r="B246" t="s">
+        <v>259</v>
+      </c>
+      <c r="C246" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>243</v>
+      </c>
+      <c r="B247" t="s">
+        <v>259</v>
+      </c>
+      <c r="C247" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>244</v>
+      </c>
+      <c r="B248" t="s">
+        <v>259</v>
+      </c>
+      <c r="C248" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>245</v>
+      </c>
+      <c r="B249" t="s">
+        <v>259</v>
+      </c>
+      <c r="C249" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>246</v>
+      </c>
+      <c r="B250" t="s">
+        <v>259</v>
+      </c>
+      <c r="C250" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>247</v>
+      </c>
+      <c r="B251" t="s">
+        <v>259</v>
+      </c>
+      <c r="C251" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>248</v>
+      </c>
+      <c r="B252" t="s">
+        <v>259</v>
+      </c>
+      <c r="C252" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>249</v>
+      </c>
+      <c r="B253" t="s">
+        <v>259</v>
+      </c>
+      <c r="C253" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>250</v>
+      </c>
+      <c r="B254" t="s">
+        <v>259</v>
+      </c>
+      <c r="C254" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>251</v>
+      </c>
+      <c r="B255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>252</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>253</v>
+      </c>
+      <c r="B257" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>254</v>
+      </c>
+      <c r="B258" t="s">
+        <v>259</v>
+      </c>
+      <c r="C258" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>255</v>
+      </c>
+      <c r="B259" t="s">
+        <v>259</v>
+      </c>
+      <c r="C259" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>256</v>
+      </c>
+      <c r="B260" t="s">
+        <v>259</v>
+      </c>
+      <c r="C260" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>257</v>
+      </c>
+      <c r="B261" t="s">
+        <v>259</v>
+      </c>
+      <c r="C261" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>258</v>
+      </c>
+      <c r="B262" t="s">
+        <v>259</v>
+      </c>
+      <c r="C262" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>259</v>
+      </c>
+      <c r="B263" t="s">
+        <v>259</v>
+      </c>
+      <c r="C263" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>260</v>
+      </c>
+      <c r="B264" t="s">
+        <v>259</v>
+      </c>
+      <c r="C264" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>261</v>
+      </c>
+      <c r="B265" t="s">
+        <v>259</v>
+      </c>
+      <c r="C265" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>262</v>
+      </c>
+      <c r="B266" t="s">
+        <v>259</v>
+      </c>
+      <c r="C266" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>263</v>
+      </c>
+      <c r="B267" t="s">
+        <v>259</v>
+      </c>
+      <c r="C267" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>264</v>
+      </c>
+      <c r="B268" t="s">
+        <v>259</v>
+      </c>
+      <c r="C268" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>265</v>
+      </c>
+      <c r="B269" t="s">
+        <v>259</v>
+      </c>
+      <c r="C269" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>266</v>
+      </c>
+      <c r="B270" t="s">
+        <v>259</v>
+      </c>
+      <c r="C270" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>267</v>
+      </c>
+      <c r="B271" t="s">
+        <v>259</v>
+      </c>
+      <c r="C271" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>268</v>
+      </c>
+      <c r="B272" t="s">
+        <v>259</v>
+      </c>
+      <c r="C272" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>269</v>
+      </c>
+      <c r="B273" t="s">
+        <v>259</v>
+      </c>
+      <c r="C273" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>270</v>
+      </c>
+      <c r="B274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C274" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>271</v>
+      </c>
+      <c r="B275" t="s">
+        <v>259</v>
+      </c>
+      <c r="C275" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>272</v>
+      </c>
+      <c r="B276" t="s">
+        <v>259</v>
+      </c>
+      <c r="C276" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>273</v>
+      </c>
+      <c r="B277" t="s">
+        <v>259</v>
+      </c>
+      <c r="C277" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>274</v>
+      </c>
+      <c r="B278" t="s">
+        <v>259</v>
+      </c>
+      <c r="C278" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>275</v>
+      </c>
+      <c r="B279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C279" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>276</v>
+      </c>
+      <c r="B280" t="s">
+        <v>259</v>
+      </c>
+      <c r="C280" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>277</v>
+      </c>
+      <c r="B281" t="s">
+        <v>259</v>
+      </c>
+      <c r="C281" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>278</v>
+      </c>
+      <c r="B282" t="s">
+        <v>259</v>
+      </c>
+      <c r="C282" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>279</v>
+      </c>
+      <c r="B283" t="s">
+        <v>259</v>
+      </c>
+      <c r="C283" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>280</v>
+      </c>
+      <c r="B284" t="s">
+        <v>259</v>
+      </c>
+      <c r="C284" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>281</v>
+      </c>
+      <c r="B285" t="s">
+        <v>259</v>
+      </c>
+      <c r="C285" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>282</v>
+      </c>
+      <c r="B286" t="s">
+        <v>259</v>
+      </c>
+      <c r="C286" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>283</v>
+      </c>
+      <c r="B287" t="s">
+        <v>259</v>
+      </c>
+      <c r="C287" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>284</v>
+      </c>
+      <c r="B288" t="s">
+        <v>259</v>
+      </c>
+      <c r="C288" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>285</v>
+      </c>
+      <c r="B289" t="s">
+        <v>259</v>
+      </c>
+      <c r="C289" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>286</v>
+      </c>
+      <c r="B290" t="s">
+        <v>259</v>
+      </c>
+      <c r="C290" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>287</v>
+      </c>
+      <c r="B291" t="s">
+        <v>259</v>
+      </c>
+      <c r="C291" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>288</v>
+      </c>
+      <c r="B292" t="s">
+        <v>259</v>
+      </c>
+      <c r="C292" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>289</v>
+      </c>
+      <c r="B293" t="s">
+        <v>259</v>
+      </c>
+      <c r="C293" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>290</v>
+      </c>
+      <c r="B294" t="s">
+        <v>259</v>
+      </c>
+      <c r="C294" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>291</v>
+      </c>
+      <c r="B295" t="s">
+        <v>315</v>
+      </c>
+      <c r="C295" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>292</v>
+      </c>
+      <c r="B296" t="s">
+        <v>315</v>
+      </c>
+      <c r="C296" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>293</v>
+      </c>
+      <c r="B297" t="s">
+        <v>315</v>
+      </c>
+      <c r="C297" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>294</v>
+      </c>
+      <c r="B298" t="s">
+        <v>315</v>
+      </c>
+      <c r="C298" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>295</v>
+      </c>
+      <c r="B299" t="s">
+        <v>315</v>
+      </c>
+      <c r="C299" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>296</v>
+      </c>
+      <c r="B300" t="s">
+        <v>315</v>
+      </c>
+      <c r="C300" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>297</v>
+      </c>
+      <c r="B301" t="s">
+        <v>315</v>
+      </c>
+      <c r="C301" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>298</v>
+      </c>
+      <c r="B302" t="s">
+        <v>315</v>
+      </c>
+      <c r="C302" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>299</v>
+      </c>
+      <c r="B303" t="s">
+        <v>315</v>
+      </c>
+      <c r="C303" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>300</v>
+      </c>
+      <c r="B304" t="s">
+        <v>315</v>
+      </c>
+      <c r="C304" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>301</v>
+      </c>
+      <c r="B305" t="s">
+        <v>315</v>
+      </c>
+      <c r="C305" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>302</v>
+      </c>
+      <c r="B306" t="s">
+        <v>315</v>
+      </c>
+      <c r="C306" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>303</v>
+      </c>
+      <c r="B307" t="s">
+        <v>328</v>
+      </c>
+      <c r="C307" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>304</v>
+      </c>
+      <c r="B308" t="s">
+        <v>330</v>
+      </c>
+      <c r="C308" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>305</v>
+      </c>
+      <c r="B309" t="s">
+        <v>330</v>
+      </c>
+      <c r="C309" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>306</v>
+      </c>
+      <c r="B310" t="s">
+        <v>330</v>
+      </c>
+      <c r="C310" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>307</v>
+      </c>
+      <c r="B311" t="s">
+        <v>330</v>
+      </c>
+      <c r="C311" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>308</v>
+      </c>
+      <c r="B312" t="s">
+        <v>330</v>
+      </c>
+      <c r="C312" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>309</v>
+      </c>
+      <c r="B313" t="s">
+        <v>336</v>
+      </c>
+      <c r="C313" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>310</v>
+      </c>
+      <c r="B314" t="s">
+        <v>336</v>
+      </c>
+      <c r="C314" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>311</v>
+      </c>
+      <c r="B315" t="s">
+        <v>336</v>
+      </c>
+      <c r="C315" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>312</v>
+      </c>
+      <c r="B316" t="s">
+        <v>336</v>
+      </c>
+      <c r="C316" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>313</v>
+      </c>
+      <c r="B317" t="s">
+        <v>336</v>
+      </c>
+      <c r="C317" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>314</v>
+      </c>
+      <c r="B318" t="s">
+        <v>336</v>
+      </c>
+      <c r="C318" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>315</v>
+      </c>
+      <c r="B319" t="s">
+        <v>336</v>
+      </c>
+      <c r="C319" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>316</v>
+      </c>
+      <c r="B320" t="s">
+        <v>336</v>
+      </c>
+      <c r="C320" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>317</v>
+      </c>
+      <c r="B321" t="s">
+        <v>336</v>
+      </c>
+      <c r="C321" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>318</v>
+      </c>
+      <c r="B322" t="s">
+        <v>336</v>
+      </c>
+      <c r="C322" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>319</v>
+      </c>
+      <c r="B323" t="s">
+        <v>347</v>
+      </c>
+      <c r="C323" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>320</v>
+      </c>
+      <c r="B324" t="s">
+        <v>347</v>
+      </c>
+      <c r="C324" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>321</v>
+      </c>
+      <c r="B325" t="s">
+        <v>347</v>
+      </c>
+      <c r="C325" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>322</v>
+      </c>
+      <c r="B326" t="s">
+        <v>347</v>
+      </c>
+      <c r="C326" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>323</v>
+      </c>
+      <c r="B327" t="s">
+        <v>347</v>
+      </c>
+      <c r="C327" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>324</v>
+      </c>
+      <c r="B328" t="s">
+        <v>347</v>
+      </c>
+      <c r="C328" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>325</v>
+      </c>
+      <c r="B329" t="s">
+        <v>347</v>
+      </c>
+      <c r="C329" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>326</v>
+      </c>
+      <c r="B330" t="s">
+        <v>347</v>
+      </c>
+      <c r="C330" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>327</v>
+      </c>
+      <c r="B331" t="s">
+        <v>347</v>
+      </c>
+      <c r="C331" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>328</v>
+      </c>
+      <c r="B332" t="s">
+        <v>347</v>
+      </c>
+      <c r="C332" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>329</v>
+      </c>
+      <c r="B333" t="s">
+        <v>347</v>
+      </c>
+      <c r="C333" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>330</v>
+      </c>
+      <c r="B334" t="s">
+        <v>347</v>
+      </c>
+      <c r="C334" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>331</v>
+      </c>
+      <c r="B335" t="s">
+        <v>347</v>
+      </c>
+      <c r="C335" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>332</v>
+      </c>
+      <c r="B336" t="s">
+        <v>347</v>
+      </c>
+      <c r="C336" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>333</v>
+      </c>
+      <c r="B337" t="s">
+        <v>347</v>
+      </c>
+      <c r="C337" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>334</v>
+      </c>
+      <c r="B338" t="s">
+        <v>347</v>
+      </c>
+      <c r="C338" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>335</v>
+      </c>
+      <c r="B339" t="s">
+        <v>364</v>
+      </c>
+      <c r="C339" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>336</v>
+      </c>
+      <c r="B340" t="s">
+        <v>364</v>
+      </c>
+      <c r="C340" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>337</v>
+      </c>
+      <c r="B341" t="s">
+        <v>364</v>
+      </c>
+      <c r="C341" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>338</v>
+      </c>
+      <c r="B342" t="s">
+        <v>364</v>
+      </c>
+      <c r="C342" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>339</v>
+      </c>
+      <c r="B343" t="s">
+        <v>369</v>
+      </c>
+      <c r="C343" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>340</v>
+      </c>
+      <c r="B344" t="s">
+        <v>369</v>
+      </c>
+      <c r="C344" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>341</v>
+      </c>
+      <c r="B345" t="s">
+        <v>369</v>
+      </c>
+      <c r="C345" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>342</v>
+      </c>
+      <c r="B346" t="s">
+        <v>369</v>
+      </c>
+      <c r="C346" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>343</v>
+      </c>
+      <c r="B347" t="s">
+        <v>369</v>
+      </c>
+      <c r="C347" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>344</v>
+      </c>
+      <c r="B348" t="s">
+        <v>375</v>
+      </c>
+      <c r="C348" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>345</v>
+      </c>
+      <c r="B349" t="s">
+        <v>375</v>
+      </c>
+      <c r="C349" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>346</v>
+      </c>
+      <c r="B350" t="s">
+        <v>375</v>
+      </c>
+      <c r="C350" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>347</v>
+      </c>
+      <c r="B351" t="s">
+        <v>375</v>
+      </c>
+      <c r="C351" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>348</v>
+      </c>
+      <c r="B352" t="s">
+        <v>375</v>
+      </c>
+      <c r="C352" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>349</v>
+      </c>
+      <c r="B353" t="s">
+        <v>375</v>
+      </c>
+      <c r="C353" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>350</v>
+      </c>
+      <c r="B354" t="s">
+        <v>375</v>
+      </c>
+      <c r="C354" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>351</v>
+      </c>
+      <c r="B355" t="s">
+        <v>375</v>
+      </c>
+      <c r="C355" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>352</v>
+      </c>
+      <c r="B356" t="s">
+        <v>375</v>
+      </c>
+      <c r="C356" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>353</v>
+      </c>
+      <c r="B357" t="s">
+        <v>375</v>
+      </c>
+      <c r="C357" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>354</v>
+      </c>
+      <c r="B358" t="s">
+        <v>375</v>
+      </c>
+      <c r="C358" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>355</v>
+      </c>
+      <c r="B359" t="s">
+        <v>375</v>
+      </c>
+      <c r="C359" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>356</v>
+      </c>
+      <c r="B360" t="s">
+        <v>375</v>
+      </c>
+      <c r="C360" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>357</v>
+      </c>
+      <c r="B361" t="s">
+        <v>375</v>
+      </c>
+      <c r="C361" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>358</v>
+      </c>
+      <c r="B362" t="s">
+        <v>375</v>
+      </c>
+      <c r="C362" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>359</v>
+      </c>
+      <c r="B363" t="s">
+        <v>375</v>
+      </c>
+      <c r="C363" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>360</v>
+      </c>
+      <c r="B364" t="s">
+        <v>375</v>
+      </c>
+      <c r="C364" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>361</v>
+      </c>
+      <c r="B365" t="s">
+        <v>375</v>
+      </c>
+      <c r="C365" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>362</v>
+      </c>
+      <c r="B366" t="s">
+        <v>375</v>
+      </c>
+      <c r="C366" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>363</v>
+      </c>
+      <c r="B367" t="s">
+        <v>375</v>
+      </c>
+      <c r="C367" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>364</v>
+      </c>
+      <c r="B368" t="s">
+        <v>375</v>
+      </c>
+      <c r="C368" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>365</v>
+      </c>
+      <c r="B369" t="s">
+        <v>375</v>
+      </c>
+      <c r="C369" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>366</v>
+      </c>
+      <c r="B370" t="s">
+        <v>375</v>
+      </c>
+      <c r="C370" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>367</v>
+      </c>
+      <c r="B371" t="s">
+        <v>375</v>
+      </c>
+      <c r="C371" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>368</v>
+      </c>
+      <c r="B372" t="s">
+        <v>375</v>
+      </c>
+      <c r="C372" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>369</v>
+      </c>
+      <c r="B373" t="s">
+        <v>375</v>
+      </c>
+      <c r="C373" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>370</v>
+      </c>
+      <c r="B374" t="s">
+        <v>375</v>
+      </c>
+      <c r="C374" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>371</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+      <c r="C375" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>372</v>
+      </c>
+      <c r="B376" t="s">
+        <v>375</v>
+      </c>
+      <c r="C376" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>373</v>
+      </c>
+      <c r="B377" t="s">
+        <v>375</v>
+      </c>
+      <c r="C377" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>374</v>
+      </c>
+      <c r="B378" t="s">
+        <v>375</v>
+      </c>
+      <c r="C378" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>375</v>
+      </c>
+      <c r="B379" t="s">
+        <v>375</v>
+      </c>
+      <c r="C379" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>376</v>
+      </c>
+      <c r="B380" t="s">
+        <v>375</v>
+      </c>
+      <c r="C380" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>377</v>
+      </c>
+      <c r="B381" t="s">
+        <v>375</v>
+      </c>
+      <c r="C381" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>378</v>
+      </c>
+      <c r="B382" t="s">
+        <v>375</v>
+      </c>
+      <c r="C382" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>379</v>
+      </c>
+      <c r="B383" t="s">
+        <v>375</v>
+      </c>
+      <c r="C383" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>380</v>
+      </c>
+      <c r="B384" t="s">
+        <v>375</v>
+      </c>
+      <c r="C384" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>381</v>
+      </c>
+      <c r="B385" t="s">
+        <v>375</v>
+      </c>
+      <c r="C385" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>382</v>
+      </c>
+      <c r="B386" t="s">
+        <v>375</v>
+      </c>
+      <c r="C386" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>383</v>
+      </c>
+      <c r="B387" t="s">
+        <v>375</v>
+      </c>
+      <c r="C387" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>384</v>
+      </c>
+      <c r="B388" t="s">
+        <v>375</v>
+      </c>
+      <c r="C388" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>385</v>
+      </c>
+      <c r="B389" t="s">
+        <v>375</v>
+      </c>
+      <c r="C389" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>386</v>
+      </c>
+      <c r="B390" t="s">
+        <v>375</v>
+      </c>
+      <c r="C390" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>387</v>
+      </c>
+      <c r="B391" t="s">
+        <v>375</v>
+      </c>
+      <c r="C391" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>388</v>
+      </c>
+      <c r="B392" t="s">
+        <v>375</v>
+      </c>
+      <c r="C392" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>389</v>
+      </c>
+      <c r="B393" t="s">
+        <v>375</v>
+      </c>
+      <c r="C393" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>390</v>
+      </c>
+      <c r="B394" t="s">
+        <v>375</v>
+      </c>
+      <c r="C394" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>391</v>
+      </c>
+      <c r="B395" t="s">
+        <v>375</v>
+      </c>
+      <c r="C395" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>392</v>
+      </c>
+      <c r="B396" t="s">
+        <v>375</v>
+      </c>
+      <c r="C396" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>393</v>
+      </c>
+      <c r="B397" t="s">
+        <v>375</v>
+      </c>
+      <c r="C397" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>394</v>
+      </c>
+      <c r="B398" t="s">
+        <v>375</v>
+      </c>
+      <c r="C398" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>395</v>
+      </c>
+      <c r="B399" t="s">
+        <v>375</v>
+      </c>
+      <c r="C399" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>396</v>
+      </c>
+      <c r="B400" t="s">
+        <v>375</v>
+      </c>
+      <c r="C400" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>397</v>
+      </c>
+      <c r="B401" t="s">
+        <v>375</v>
+      </c>
+      <c r="C401" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>398</v>
+      </c>
+      <c r="B402" t="s">
+        <v>375</v>
+      </c>
+      <c r="C402" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>399</v>
+      </c>
+      <c r="B403" t="s">
+        <v>375</v>
+      </c>
+      <c r="C403" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>400</v>
+      </c>
+      <c r="B404" t="s">
+        <v>375</v>
+      </c>
+      <c r="C404" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
